--- a/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>317706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>291952</v>
+        <v>289168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342619</v>
+        <v>341511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4577810935793575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4206735231666842</v>
+        <v>0.4166610710686786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.493678856687583</v>
+        <v>0.4920816370202932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>415</v>
@@ -765,19 +765,19 @@
         <v>410346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>384300</v>
+        <v>385970</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>435589</v>
+        <v>436625</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5961291574832115</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5582900413229631</v>
+        <v>0.5607172745572453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6328006947612617</v>
+        <v>0.6343064661756636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>732</v>
@@ -786,19 +786,19 @@
         <v>728052</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>688897</v>
+        <v>693673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>764125</v>
+        <v>765202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5266718418673618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4983477548564161</v>
+        <v>0.5018025153556773</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5527675130627991</v>
+        <v>0.5535463550304611</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>376306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351393</v>
+        <v>352501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402060</v>
+        <v>404844</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5422189064206424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5063211433124166</v>
+        <v>0.507918362979707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5793264768333158</v>
+        <v>0.5833389289313216</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>281</v>
@@ -836,19 +836,19 @@
         <v>278005</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252762</v>
+        <v>251726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304051</v>
+        <v>302381</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4038708425167885</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3671993052387383</v>
+        <v>0.3656935338243365</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4417099586770369</v>
+        <v>0.4392827254427547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>647</v>
@@ -857,19 +857,19 @@
         <v>654311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>618238</v>
+        <v>617161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>693466</v>
+        <v>688690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4733281581326381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4472324869372007</v>
+        <v>0.4464536449695388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5016522451435838</v>
+        <v>0.4981974846443227</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>435634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>403688</v>
+        <v>401067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>467394</v>
+        <v>466691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4529357183579879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4197208955952682</v>
+        <v>0.4169961569924837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.48595802334607</v>
+        <v>0.4852267950729106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>564</v>
@@ -982,19 +982,19 @@
         <v>603068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>569028</v>
+        <v>571685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>633603</v>
+        <v>633390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6227515274065774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5876004350205261</v>
+        <v>0.5903439773622136</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6542826467769811</v>
+        <v>0.654063430514752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>979</v>
@@ -1003,19 +1003,19 @@
         <v>1038702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>992633</v>
+        <v>995421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1085071</v>
+        <v>1083436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5381336468776158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5142659808937792</v>
+        <v>0.515710482479236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.562156955878427</v>
+        <v>0.5613099104162095</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>526166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494406</v>
+        <v>495109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>558112</v>
+        <v>560733</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.547064281642012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5140419766539299</v>
+        <v>0.5147732049270894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5802791044047316</v>
+        <v>0.5830038430075162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -1053,19 +1053,19 @@
         <v>365325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334790</v>
+        <v>335003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399365</v>
+        <v>396708</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3772484725934226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3457173532230188</v>
+        <v>0.345936569485248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4123995649794738</v>
+        <v>0.4096560226377864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>825</v>
@@ -1074,19 +1074,19 @@
         <v>891491</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>845122</v>
+        <v>846757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>937560</v>
+        <v>934772</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4618663531223843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.437843044121573</v>
+        <v>0.4386900895837907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4857340191062207</v>
+        <v>0.4842895175207643</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>304248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>277840</v>
+        <v>276156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>328783</v>
+        <v>329305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4484069560973682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4094861754001759</v>
+        <v>0.4070043534277238</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4845664809790956</v>
+        <v>0.4853366578156341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>423</v>
@@ -1199,19 +1199,19 @@
         <v>411585</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>384740</v>
+        <v>386343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>438756</v>
+        <v>436474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6018718442175247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5626162943035549</v>
+        <v>0.5649608600125979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.641604989021159</v>
+        <v>0.6382675464777984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>717</v>
@@ -1220,19 +1220,19 @@
         <v>715833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>676666</v>
+        <v>676726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>751236</v>
+        <v>750797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5254397243806526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4966904847282333</v>
+        <v>0.4967340315555763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5514263312633579</v>
+        <v>0.5511043831482193</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>374261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>349726</v>
+        <v>349204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400669</v>
+        <v>402353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5515930439026318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5154335190209041</v>
+        <v>0.5146633421843658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.590513824599824</v>
+        <v>0.5929956465722762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>273</v>
@@ -1270,19 +1270,19 @@
         <v>272256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245085</v>
+        <v>247367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>299101</v>
+        <v>297498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3981281557824753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.358395010978841</v>
+        <v>0.3617324535222015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.437383705696445</v>
+        <v>0.4350391399874021</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>620</v>
@@ -1291,19 +1291,19 @@
         <v>646517</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611114</v>
+        <v>611553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>685684</v>
+        <v>685624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4745602756193474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4485736687366422</v>
+        <v>0.4488956168517807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5033095152717668</v>
+        <v>0.5032659684444235</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>396214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>364713</v>
+        <v>365865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>426447</v>
+        <v>424841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4205102895341538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3870780802664632</v>
+        <v>0.3883003557646647</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4525967002173146</v>
+        <v>0.4508926330092365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>592</v>
@@ -1416,19 +1416,19 @@
         <v>615771</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>584745</v>
+        <v>582970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>649212</v>
+        <v>643471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.592879229833995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5630060113364693</v>
+        <v>0.5612972213253075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6250765477895021</v>
+        <v>0.6195485813839859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1018</v>
@@ -1437,19 +1437,19 @@
         <v>1011986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>972299</v>
+        <v>969185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1056332</v>
+        <v>1056667</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5108886056124338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4908534698695576</v>
+        <v>0.4892815042422883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5332761622827776</v>
+        <v>0.5334456690734198</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>546008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>515775</v>
+        <v>517381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>577509</v>
+        <v>576357</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5794897104658462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5474032997826853</v>
+        <v>0.5491073669907635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6129219197335367</v>
+        <v>0.6116996442353353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>405</v>
@@ -1487,19 +1487,19 @@
         <v>422841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389400</v>
+        <v>395141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>453867</v>
+        <v>455642</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.407120770166005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3749234522104979</v>
+        <v>0.3804514186160141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4369939886635308</v>
+        <v>0.4387027786746925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>973</v>
@@ -1508,19 +1508,19 @@
         <v>968848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924502</v>
+        <v>924167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1008535</v>
+        <v>1011649</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4891113943875663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4667238377172223</v>
+        <v>0.4665543309265802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5091465301304423</v>
+        <v>0.5107184957577117</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1453801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.443699761409807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1994</v>
@@ -1633,19 +1633,19 @@
         <v>2040770</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6039217156034284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3446</v>
@@ -1654,19 +1654,19 @@
         <v>3494572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5250463201909409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1822742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1768386</v>
+        <v>1761067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1884173</v>
+        <v>1874363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.556300238590193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5397109135600215</v>
+        <v>0.5374770264528339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5750489773783954</v>
+        <v>0.5720550130952761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1303</v>
@@ -1704,19 +1704,19 @@
         <v>1338427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1287984</v>
+        <v>1284703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1397208</v>
+        <v>1392847</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3960782843965715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.381150954849987</v>
+        <v>0.3801800737571366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4134734847134272</v>
+        <v>0.4121829246674181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3065</v>
@@ -1725,19 +1725,19 @@
         <v>3161169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3083661</v>
+        <v>3075748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3253053</v>
+        <v>3236440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4749536798090591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4633084515387341</v>
+        <v>0.4621195901306294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4887590150726996</v>
+        <v>0.4862629803716479</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>415148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>386204</v>
+        <v>387272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>442248</v>
+        <v>440171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5901435966911853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5489990006499059</v>
+        <v>0.5505170257010741</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6286676981105415</v>
+        <v>0.6257147511101299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>443</v>
@@ -2090,19 +2090,19 @@
         <v>472531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>448214</v>
+        <v>448183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>497546</v>
+        <v>497934</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6779016356248084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.643015086429555</v>
+        <v>0.6429708998139747</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7137881418742522</v>
+        <v>0.7143442228509935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>838</v>
@@ -2111,19 +2111,19 @@
         <v>887679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>852268</v>
+        <v>852336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>923341</v>
+        <v>923984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6338215060473741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6085374722345335</v>
+        <v>0.608585918280183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6592851624583997</v>
+        <v>0.659743653013475</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>288321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261221</v>
+        <v>263298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317265</v>
+        <v>316197</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4098564033088147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3713323018894585</v>
+        <v>0.37428524888987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.451000999350094</v>
+        <v>0.449482974298926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -2161,19 +2161,19 @@
         <v>224519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199504</v>
+        <v>199116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248836</v>
+        <v>248867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3220983643751916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2862118581257477</v>
+        <v>0.2856557771490065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3569849135704451</v>
+        <v>0.3570291001860253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>486</v>
@@ -2182,19 +2182,19 @@
         <v>512840</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477178</v>
+        <v>476535</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>548251</v>
+        <v>548183</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3661784939526259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3407148375416001</v>
+        <v>0.3402563469865252</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3914625277654662</v>
+        <v>0.3914140817198171</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>531068</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>497898</v>
+        <v>496405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>562492</v>
+        <v>564199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5217049277758395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.489119967996004</v>
+        <v>0.4876532718768722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5525750547903381</v>
+        <v>0.554251468508935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>646</v>
@@ -2307,19 +2307,19 @@
         <v>711279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>680342</v>
+        <v>681663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>742686</v>
+        <v>740017</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6891006315064877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.65912908745274</v>
+        <v>0.6604079554535308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7195284810230296</v>
+        <v>0.7169424942949233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1135</v>
@@ -2328,19 +2328,19 @@
         <v>1242347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1194313</v>
+        <v>1194438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1283673</v>
+        <v>1287881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.605984008793032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5825544126123499</v>
+        <v>0.5826155317916791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6261419328314145</v>
+        <v>0.6281946982903657</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>486879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455455</v>
+        <v>453748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>520049</v>
+        <v>521542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4782950722241604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.447424945209662</v>
+        <v>0.445748531491065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.510880032003996</v>
+        <v>0.5123467281231278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>294</v>
@@ -2378,19 +2378,19 @@
         <v>320905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289498</v>
+        <v>292167</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351842</v>
+        <v>350521</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3108993684935123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2804715189769704</v>
+        <v>0.2830575057050767</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3408709125472599</v>
+        <v>0.3395920445464692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>741</v>
@@ -2399,19 +2399,19 @@
         <v>807784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>766458</v>
+        <v>762250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>855818</v>
+        <v>855693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.394015991206968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3738580671685857</v>
+        <v>0.3718053017096343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4174455873876502</v>
+        <v>0.4173844682083208</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>370036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>341043</v>
+        <v>339602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>398962</v>
+        <v>397271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.488416950073674</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4501484852145906</v>
+        <v>0.4482466850499968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5265972294139597</v>
+        <v>0.5243644717066104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>462</v>
@@ -2524,19 +2524,19 @@
         <v>515366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>487833</v>
+        <v>485978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>543579</v>
+        <v>543539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6631280066956148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6277011018095264</v>
+        <v>0.6253140717251451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6994299342312342</v>
+        <v>0.6993790206292864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>793</v>
@@ -2545,19 +2545,19 @@
         <v>885402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>844544</v>
+        <v>846021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>925365</v>
+        <v>923955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5768852383574318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5502644858048743</v>
+        <v>0.5512264586150023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6029233904271948</v>
+        <v>0.6020048517000675</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>387587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>358661</v>
+        <v>360352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>416580</v>
+        <v>418021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.511583049926326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4734027705860404</v>
+        <v>0.4756355282933895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5498515147854095</v>
+        <v>0.5517533149500032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -2595,19 +2595,19 @@
         <v>261808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233595</v>
+        <v>233635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289341</v>
+        <v>291196</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3368719933043852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3005700657687658</v>
+        <v>0.3006209793707136</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3722988981904736</v>
+        <v>0.374685928274855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>601</v>
@@ -2616,19 +2616,19 @@
         <v>649395</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>609432</v>
+        <v>610842</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>690253</v>
+        <v>688776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4231147616425682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3970766095728052</v>
+        <v>0.3979951482999326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4497355141951257</v>
+        <v>0.4487735413849978</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>529950</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>497282</v>
+        <v>498117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>561582</v>
+        <v>560055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5591731197804501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5247038625434978</v>
+        <v>0.5255848980382766</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5925493520984214</v>
+        <v>0.5909380588801765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>669</v>
@@ -2741,19 +2741,19 @@
         <v>704949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>673970</v>
+        <v>670876</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>735035</v>
+        <v>733083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6701671324169564</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6407163745794822</v>
+        <v>0.6377751450947011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6987683272303807</v>
+        <v>0.6969120739967903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1170</v>
@@ -2762,19 +2762,19 @@
         <v>1234900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1189755</v>
+        <v>1195420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1277734</v>
+        <v>1280206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6175609753962435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5949843832472422</v>
+        <v>0.5978176566888512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6389820183364238</v>
+        <v>0.6402183282452776</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>417789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>386157</v>
+        <v>387684</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>450457</v>
+        <v>449622</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4408268802195499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4074506479015785</v>
+        <v>0.4090619411198235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4752961374565022</v>
+        <v>0.4744151019617234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -2812,19 +2812,19 @@
         <v>346952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316866</v>
+        <v>318818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377931</v>
+        <v>381025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3298328675830436</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3012316727696192</v>
+        <v>0.3030879260032097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3592836254205179</v>
+        <v>0.3622248549052989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>743</v>
@@ -2833,19 +2833,19 @@
         <v>764740</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>721906</v>
+        <v>719434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>809885</v>
+        <v>804220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3824390246037565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3610179816635763</v>
+        <v>0.3597816717547224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4050156167527579</v>
+        <v>0.4021823433111489</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1846202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5387573310512408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2220</v>
@@ -2958,19 +2958,19 @@
         <v>2404125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6756370241573237</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3936</v>
@@ -2979,19 +2979,19 @@
         <v>4250328</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.608485909930736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1580577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1528112</v>
+        <v>1521839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1644732</v>
+        <v>1647038</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4612426689487593</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4459324172860959</v>
+        <v>0.4441017389480746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.479964319064541</v>
+        <v>0.480637239875508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1078</v>
@@ -3029,19 +3029,19 @@
         <v>1154184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1098113</v>
+        <v>1096956</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1209349</v>
+        <v>1211212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3243629758426763</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3086053052057233</v>
+        <v>0.3082800270446172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3398661634579523</v>
+        <v>0.3403899096742574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2571</v>
@@ -3050,19 +3050,19 @@
         <v>2734760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2653964</v>
+        <v>2652678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2823593</v>
+        <v>2823274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.391514090069264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3799470448013148</v>
+        <v>0.3797629858419475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.404231556582419</v>
+        <v>0.4041859444088932</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>340780</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315395</v>
+        <v>316163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>368011</v>
+        <v>365587</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5050084864342013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4673896556385453</v>
+        <v>0.4685282034116735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5453628979575673</v>
+        <v>0.541770577390185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>402</v>
@@ -3415,19 +3415,19 @@
         <v>419203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>393168</v>
+        <v>394677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>444739</v>
+        <v>445776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6230362518077533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5843425684001151</v>
+        <v>0.5865851021619898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6609893893490599</v>
+        <v>0.6625294000581528</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>734</v>
@@ -3436,19 +3436,19 @@
         <v>759983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>723648</v>
+        <v>722807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>797559</v>
+        <v>797251</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5639364957238028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.536974449323274</v>
+        <v>0.5363509010553611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5918192785493611</v>
+        <v>0.5915910075116194</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>334020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306789</v>
+        <v>309213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>359405</v>
+        <v>358637</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4949915135657987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4546371020424326</v>
+        <v>0.458229422609815</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5326103443614546</v>
+        <v>0.5314717965883266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>264</v>
@@ -3486,19 +3486,19 @@
         <v>253636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228100</v>
+        <v>227063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279671</v>
+        <v>278162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3769637481922466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.33901061065094</v>
+        <v>0.3374705999418473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4156574315998848</v>
+        <v>0.4134148978380103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>584</v>
@@ -3507,19 +3507,19 @@
         <v>587656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>550080</v>
+        <v>550388</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623991</v>
+        <v>624832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4360635042761973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4081807214506389</v>
+        <v>0.4084089924883806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.463025550676726</v>
+        <v>0.4636490989446388</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>499937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>467903</v>
+        <v>464375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>535008</v>
+        <v>529930</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4889690872485192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4576379329570189</v>
+        <v>0.4541870875899958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5232701208527268</v>
+        <v>0.5183043991326298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>607</v>
@@ -3632,19 +3632,19 @@
         <v>666373</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>633958</v>
+        <v>635512</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>697004</v>
+        <v>699815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6389539357617614</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6078719008908083</v>
+        <v>0.6093621828426325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6683244211646878</v>
+        <v>0.6710191466189881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1080</v>
@@ -3653,19 +3653,19 @@
         <v>1166311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1115021</v>
+        <v>1120872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1213762</v>
+        <v>1217720</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5647052111510589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5398719525201959</v>
+        <v>0.5427048194384017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5876802441132233</v>
+        <v>0.5895968379329088</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>522494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487423</v>
+        <v>492501</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>554528</v>
+        <v>558056</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5110309127514808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4767298791472731</v>
+        <v>0.4816956008673702</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5423620670429811</v>
+        <v>0.5458129124100041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>370</v>
@@ -3703,19 +3703,19 @@
         <v>376540</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345909</v>
+        <v>343098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408955</v>
+        <v>407401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3610460642382386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3316755788353123</v>
+        <v>0.328980853381012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3921280991091918</v>
+        <v>0.3906378171573675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>848</v>
@@ -3724,19 +3724,19 @@
         <v>899033</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>851582</v>
+        <v>847624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>950323</v>
+        <v>944472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4352947888489412</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4123197558867767</v>
+        <v>0.410403162067091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4601280474798039</v>
+        <v>0.4572951805615983</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>356192</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>327423</v>
+        <v>328772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>383057</v>
+        <v>382837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4689495246683122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4310734317068687</v>
+        <v>0.4328499623673369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5043199232632949</v>
+        <v>0.5040301127683189</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -3849,19 +3849,19 @@
         <v>456732</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>429298</v>
+        <v>426122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>484025</v>
+        <v>485173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5818165419993456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5468682720885711</v>
+        <v>0.5428228925381453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6165839067196887</v>
+        <v>0.6180462857249769</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>745</v>
@@ -3870,19 +3870,19 @@
         <v>812924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>766998</v>
+        <v>772321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>849548</v>
+        <v>851269</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5263132121516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4965793383780104</v>
+        <v>0.5000253873072176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.550025004274577</v>
+        <v>0.5511392671059903</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>403360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376495</v>
+        <v>376715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>432129</v>
+        <v>430780</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5310504753316878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4956800767367048</v>
+        <v>0.4959698872316811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5689265682931314</v>
+        <v>0.567150037632663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -3920,19 +3920,19 @@
         <v>328279</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300986</v>
+        <v>299838</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>355713</v>
+        <v>358889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4181834580006544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3834160932803114</v>
+        <v>0.3819537142750232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4531317279114288</v>
+        <v>0.4571771074618547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>687</v>
@@ -3941,19 +3941,19 @@
         <v>731639</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>695015</v>
+        <v>693294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>777565</v>
+        <v>772242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4736867878484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4499749957254231</v>
+        <v>0.4488607328940097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5034206616219897</v>
+        <v>0.4999746126927824</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>489938</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>461689</v>
+        <v>459800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>520716</v>
+        <v>524922</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5225631598818307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4924333015987228</v>
+        <v>0.4904179785450434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5553908137834713</v>
+        <v>0.5598767027896587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>560</v>
@@ -4066,19 +4066,19 @@
         <v>630593</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>596626</v>
+        <v>598764</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>658993</v>
+        <v>662128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6041437827895939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5716013684279296</v>
+        <v>0.573650384189116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6313525769542154</v>
+        <v>0.6343568312829094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1052</v>
@@ -4087,19 +4087,19 @@
         <v>1120531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1073579</v>
+        <v>1077236</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1159756</v>
+        <v>1163917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5655400763440682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5418432952594769</v>
+        <v>0.543688944263276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5853374186630795</v>
+        <v>0.5874375223917128</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>447629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>416851</v>
+        <v>412645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>475878</v>
+        <v>477767</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4774368401181693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4446091862165286</v>
+        <v>0.4401232972103413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5075666984012771</v>
+        <v>0.5095820214549566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -4137,19 +4137,19 @@
         <v>413186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384786</v>
+        <v>381651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447153</v>
+        <v>445015</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3958562172104061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3686474230457846</v>
+        <v>0.3656431687170905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4283986315720704</v>
+        <v>0.4263496158108834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>839</v>
@@ -4158,19 +4158,19 @@
         <v>860815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>821590</v>
+        <v>817429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>907767</v>
+        <v>904110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4344599236559318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4146625813369207</v>
+        <v>0.412562477608287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4581567047405233</v>
+        <v>0.456311055736724</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1686846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4969571176811913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1985</v>
@@ -4283,19 +4283,19 @@
         <v>2172901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.613027418908783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3611</v>
@@ -4304,19 +4304,19 @@
         <v>3859748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5562484335355922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1707504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1650052</v>
+        <v>1644339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1767859</v>
+        <v>1763479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5030428823188087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4861172518150644</v>
+        <v>0.4844342398652042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5208241198811953</v>
+        <v>0.5195335825616936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1353</v>
@@ -4354,19 +4354,19 @@
         <v>1371641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1315865</v>
+        <v>1309435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1431347</v>
+        <v>1425237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.386972581091217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3712369162694664</v>
+        <v>0.3694229559018593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4038172011986463</v>
+        <v>0.4020933020249641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2958</v>
@@ -4375,19 +4375,19 @@
         <v>3079144</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2997817</v>
+        <v>2996788</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3158464</v>
+        <v>3167468</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4437515664644078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4320310603920324</v>
+        <v>0.431882813136058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4551827314856394</v>
+        <v>0.4564803262242741</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>258935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232898</v>
+        <v>232914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285526</v>
+        <v>285015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.374881815905707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3371868573254389</v>
+        <v>0.3372090067585183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4133802235094609</v>
+        <v>0.412641058676267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>595</v>
@@ -4740,19 +4740,19 @@
         <v>322543</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>299743</v>
+        <v>298423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>343977</v>
+        <v>343994</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4393240669068609</v>
+        <v>0.439324066906861</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4082687714712742</v>
+        <v>0.406470899733526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4685181485831446</v>
+        <v>0.468541386221196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>906</v>
@@ -4761,19 +4761,19 @@
         <v>581477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>544003</v>
+        <v>544662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>614382</v>
+        <v>617438</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4080859372049226</v>
+        <v>0.4080859372049225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3817860463608448</v>
+        <v>0.3822486324438205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4311790234252303</v>
+        <v>0.433323881995099</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>431775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405184</v>
+        <v>405695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>457812</v>
+        <v>457796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6251181840942931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5866197764905395</v>
+        <v>0.5873589413237331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6628131426745612</v>
+        <v>0.6627909932414817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>646</v>
@@ -4811,19 +4811,19 @@
         <v>411637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390203</v>
+        <v>390186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>434437</v>
+        <v>435757</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.560675933093139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5314818514168551</v>
+        <v>0.5314586137788041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5917312285287257</v>
+        <v>0.5935291002664741</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1065</v>
@@ -4832,19 +4832,19 @@
         <v>843412</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810507</v>
+        <v>807451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>880886</v>
+        <v>880227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5919140627950775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5688209765747698</v>
+        <v>0.5666761180049009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6182139536391552</v>
+        <v>0.6177513675561797</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>363682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>328412</v>
+        <v>331576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>397080</v>
+        <v>399806</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.34672158199186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.313096638335872</v>
+        <v>0.3161129710315133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3785615541235996</v>
+        <v>0.3811611366302577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>709</v>
@@ -4957,19 +4957,19 @@
         <v>463475</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>434085</v>
+        <v>435844</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>493306</v>
+        <v>493347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.432558562181952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4051288798103294</v>
+        <v>0.4067701307729127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4603991995490067</v>
+        <v>0.4604378075345952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1090</v>
@@ -4978,19 +4978,19 @@
         <v>827157</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>783720</v>
+        <v>782352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>869536</v>
+        <v>871356</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3900966477600054</v>
+        <v>0.3900966477600055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3696111405467452</v>
+        <v>0.3689658180231722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4100830247669472</v>
+        <v>0.4109412326620711</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>685235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651837</v>
+        <v>649111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>720505</v>
+        <v>717341</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6532784180081401</v>
+        <v>0.65327841800814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6214384458764003</v>
+        <v>0.6188388633697421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6869033616641281</v>
+        <v>0.6838870289684866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>808</v>
@@ -5028,19 +5028,19 @@
         <v>607999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>578168</v>
+        <v>578127</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>637389</v>
+        <v>635630</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5674414378180479</v>
+        <v>0.567441437818048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5396008004509935</v>
+        <v>0.5395621924654045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5948711201896706</v>
+        <v>0.5932298692270871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1391</v>
@@ -5049,19 +5049,19 @@
         <v>1293234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1250855</v>
+        <v>1249035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1336671</v>
+        <v>1338039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6099033522399945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5899169752330531</v>
+        <v>0.5890587673379289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.630388859453255</v>
+        <v>0.6310341819768278</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>244739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>216690</v>
+        <v>216966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275336</v>
+        <v>275390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3047529521938065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2698260632272574</v>
+        <v>0.2701699161554945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3428531484070138</v>
+        <v>0.3429200228611668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>402</v>
@@ -5174,19 +5174,19 @@
         <v>277957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>252825</v>
+        <v>254196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>301200</v>
+        <v>303493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3422020958143789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3112615964191659</v>
+        <v>0.312949670584471</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3708181074985363</v>
+        <v>0.3736407313739818</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>633</v>
@@ -5195,19 +5195,19 @@
         <v>522696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>483714</v>
+        <v>481440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>562199</v>
+        <v>562506</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3235840025421614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2994514456876251</v>
+        <v>0.2980442455756718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3480389921395409</v>
+        <v>0.3482295977504757</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>558334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527737</v>
+        <v>527683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>586383</v>
+        <v>586107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6952470478061935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6571468515929862</v>
+        <v>0.6570799771388331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7301739367727426</v>
+        <v>0.7298300838445055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -5245,19 +5245,19 @@
         <v>534302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>511059</v>
+        <v>508766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>559434</v>
+        <v>558063</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6577979041856209</v>
+        <v>0.6577979041856211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6291818925014636</v>
+        <v>0.6263592686260181</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6887384035808342</v>
+        <v>0.6870503294155289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1090</v>
@@ -5266,19 +5266,19 @@
         <v>1092636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053133</v>
+        <v>1052826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1131618</v>
+        <v>1133892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6764159974578385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6519610078604593</v>
+        <v>0.6517704022495242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7005485543123749</v>
+        <v>0.7019557544243281</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>294644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>265492</v>
+        <v>264405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>326927</v>
+        <v>329112</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2976015248590465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.268156599893243</v>
+        <v>0.267058665443643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3302082544914573</v>
+        <v>0.3324156503907347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>643</v>
@@ -5391,19 +5391,19 @@
         <v>419550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>391705</v>
+        <v>392938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>448755</v>
+        <v>448674</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3749190836619147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3500362553669686</v>
+        <v>0.3511378538577339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4010178972492054</v>
+        <v>0.4009454950841704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>982</v>
@@ -5412,19 +5412,19 @@
         <v>714194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>673020</v>
+        <v>672019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>753021</v>
+        <v>757113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3386244256023109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3191021388617261</v>
+        <v>0.3186278364380647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3570337813569717</v>
+        <v>0.3589736645224204</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>695418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>663135</v>
+        <v>660950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>724570</v>
+        <v>725657</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7023984751409534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6697917455085425</v>
+        <v>0.6675843496092654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7318434001067566</v>
+        <v>0.732941334556357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>919</v>
@@ -5462,19 +5462,19 @@
         <v>699491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670286</v>
+        <v>670367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727336</v>
+        <v>726103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6250809163380854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5989821027507947</v>
+        <v>0.5990545049158296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6499637446330317</v>
+        <v>0.6488621461422659</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1586</v>
@@ -5483,19 +5483,19 @@
         <v>1394910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1356083</v>
+        <v>1351991</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1436084</v>
+        <v>1437085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6613755743976891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6429662186430281</v>
+        <v>0.6410263354775796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6808978611382739</v>
+        <v>0.6813721635619353</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1162000</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3289209929412851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2349</v>
@@ -5608,19 +5608,19 @@
         <v>1483525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3969876982928979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3611</v>
@@ -5629,19 +5629,19 @@
         <v>2645524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3639102766400566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2370762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2308338</v>
+        <v>2310959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2428520</v>
+        <v>2428986</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6710790070587148</v>
+        <v>0.671079007058715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6534088317790414</v>
+        <v>0.6541509115567217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6874280216390692</v>
+        <v>0.6875600415292686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3018</v>
@@ -5679,19 +5679,19 @@
         <v>2253429</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2198670</v>
+        <v>2198620</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2305526</v>
+        <v>2308149</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6030123017071023</v>
+        <v>0.6030123017071021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5883588761679804</v>
+        <v>0.5883454365030283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.616953384055293</v>
+        <v>0.6176552643317385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5132</v>
@@ -5700,19 +5700,19 @@
         <v>4624192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4540275</v>
+        <v>4545417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4705348</v>
+        <v>4707085</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6360897233599434</v>
+        <v>0.6360897233599432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6245463490451666</v>
+        <v>0.625253746872834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6472533110395596</v>
+        <v>0.6474923298171331</v>
       </c>
     </row>
     <row r="18">
